--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Amelx</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H2">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.7833316749456</v>
+        <v>66.089962</v>
       </c>
       <c r="N2">
-        <v>65.7833316749456</v>
+        <v>198.269886</v>
       </c>
       <c r="O2">
-        <v>0.08643075905751735</v>
+        <v>0.08629966513164383</v>
       </c>
       <c r="P2">
-        <v>0.08643075905751735</v>
+        <v>0.08629966513164385</v>
       </c>
       <c r="Q2">
-        <v>64.39586392695128</v>
+        <v>81.54064955625867</v>
       </c>
       <c r="R2">
-        <v>64.39586392695128</v>
+        <v>733.8658460063281</v>
       </c>
       <c r="S2">
-        <v>0.08643075905751735</v>
+        <v>0.07077427106137549</v>
       </c>
       <c r="T2">
-        <v>0.08643075905751735</v>
+        <v>0.0707742710613755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H3">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>187.724547857464</v>
+        <v>187.8526456666667</v>
       </c>
       <c r="N3">
-        <v>187.724547857464</v>
+        <v>563.557937</v>
       </c>
       <c r="O3">
-        <v>0.2466456889903832</v>
+        <v>0.2452962586833789</v>
       </c>
       <c r="P3">
-        <v>0.2466456889903832</v>
+        <v>0.2452962586833788</v>
       </c>
       <c r="Q3">
-        <v>183.7651595287295</v>
+        <v>231.7693381110085</v>
       </c>
       <c r="R3">
-        <v>183.7651595287295</v>
+        <v>2085.924042999076</v>
       </c>
       <c r="S3">
-        <v>0.2466456889903832</v>
+        <v>0.20116722209659</v>
       </c>
       <c r="T3">
-        <v>0.2466456889903832</v>
+        <v>0.20116722209659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H4">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>226.670660655284</v>
+        <v>227.8758186666667</v>
       </c>
       <c r="N4">
-        <v>226.670660655284</v>
+        <v>683.6274560000001</v>
       </c>
       <c r="O4">
-        <v>0.2978158259498238</v>
+        <v>0.2975581502457594</v>
       </c>
       <c r="P4">
-        <v>0.2978158259498238</v>
+        <v>0.2975581502457594</v>
       </c>
       <c r="Q4">
-        <v>221.8898412126051</v>
+        <v>281.1492352234098</v>
       </c>
       <c r="R4">
-        <v>221.8898412126051</v>
+        <v>2530.343117010688</v>
       </c>
       <c r="S4">
-        <v>0.2978158259498238</v>
+        <v>0.2440271483080519</v>
       </c>
       <c r="T4">
-        <v>0.2978158259498238</v>
+        <v>0.2440271483080519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H5">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>253.896640247403</v>
+        <v>254.4120126666667</v>
       </c>
       <c r="N5">
-        <v>253.896640247403</v>
+        <v>763.236038</v>
       </c>
       <c r="O5">
-        <v>0.3335872291657475</v>
+        <v>0.3322088685510345</v>
       </c>
       <c r="P5">
-        <v>0.3335872291657475</v>
+        <v>0.3322088685510345</v>
       </c>
       <c r="Q5">
-        <v>248.5415846322804</v>
+        <v>313.8891314199138</v>
       </c>
       <c r="R5">
-        <v>248.5415846322804</v>
+        <v>2825.002182779224</v>
       </c>
       <c r="S5">
-        <v>0.3335872291657475</v>
+        <v>0.2724441685371337</v>
       </c>
       <c r="T5">
-        <v>0.3335872291657475</v>
+        <v>0.2724441685371337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.233782666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.701348</v>
+      </c>
+      <c r="I6">
+        <v>0.8200990230195506</v>
+      </c>
+      <c r="J6">
+        <v>0.8200990230195507</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>29.58901</v>
+      </c>
+      <c r="N6">
+        <v>88.76703000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="P6">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="Q6">
+        <v>36.50640766182667</v>
+      </c>
+      <c r="R6">
+        <v>328.5576689564401</v>
+      </c>
+      <c r="S6">
+        <v>0.03168621301639953</v>
+      </c>
+      <c r="T6">
+        <v>0.03168621301639953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.266414</v>
+      </c>
+      <c r="I7">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J7">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>66.089962</v>
+      </c>
+      <c r="N7">
+        <v>198.269886</v>
+      </c>
+      <c r="O7">
+        <v>0.08629966513164383</v>
+      </c>
+      <c r="P7">
+        <v>0.08629966513164385</v>
+      </c>
+      <c r="Q7">
+        <v>5.869097045422666</v>
+      </c>
+      <c r="R7">
+        <v>52.821873408804</v>
+      </c>
+      <c r="S7">
+        <v>0.005094159384782324</v>
+      </c>
+      <c r="T7">
+        <v>0.005094159384782326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.266414</v>
+      </c>
+      <c r="I8">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J8">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>187.8526456666667</v>
+      </c>
+      <c r="N8">
+        <v>563.557937</v>
+      </c>
+      <c r="O8">
+        <v>0.2452962586833789</v>
+      </c>
+      <c r="P8">
+        <v>0.2452962586833788</v>
+      </c>
+      <c r="Q8">
+        <v>16.68219158087978</v>
+      </c>
+      <c r="R8">
+        <v>150.139724227918</v>
+      </c>
+      <c r="S8">
+        <v>0.01447952592072967</v>
+      </c>
+      <c r="T8">
+        <v>0.01447952592072967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.266414</v>
+      </c>
+      <c r="I9">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J9">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>227.8758186666667</v>
+      </c>
+      <c r="N9">
+        <v>683.6274560000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2975581502457594</v>
+      </c>
+      <c r="P9">
+        <v>0.2975581502457594</v>
+      </c>
+      <c r="Q9">
+        <v>20.23643611808711</v>
+      </c>
+      <c r="R9">
+        <v>182.127925062784</v>
+      </c>
+      <c r="S9">
+        <v>0.01756447885725453</v>
+      </c>
+      <c r="T9">
+        <v>0.01756447885725453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.266414</v>
+      </c>
+      <c r="I10">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J10">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>254.4120126666667</v>
+      </c>
+      <c r="N10">
+        <v>763.236038</v>
+      </c>
+      <c r="O10">
+        <v>0.3322088685510345</v>
+      </c>
+      <c r="P10">
+        <v>0.3322088685510345</v>
+      </c>
+      <c r="Q10">
+        <v>22.59297398085911</v>
+      </c>
+      <c r="R10">
+        <v>203.336765827732</v>
+      </c>
+      <c r="S10">
+        <v>0.01960986665308205</v>
+      </c>
+      <c r="T10">
+        <v>0.01960986665308205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.266414</v>
+      </c>
+      <c r="I11">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J11">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>29.58901</v>
+      </c>
+      <c r="N11">
+        <v>88.76703000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="P11">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="Q11">
+        <v>2.627642170046666</v>
+      </c>
+      <c r="R11">
+        <v>23.64877953042</v>
+      </c>
+      <c r="S11">
+        <v>0.00228069631781477</v>
+      </c>
+      <c r="T11">
+        <v>0.00228069631781477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.978908521160798</v>
-      </c>
-      <c r="H6">
-        <v>0.978908521160798</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>27.0350121893666</v>
-      </c>
-      <c r="N6">
-        <v>27.0350121893666</v>
-      </c>
-      <c r="O6">
-        <v>0.03552049683652818</v>
-      </c>
-      <c r="P6">
-        <v>0.03552049683652818</v>
-      </c>
-      <c r="Q6">
-        <v>26.46480380185701</v>
-      </c>
-      <c r="R6">
-        <v>26.46480380185701</v>
-      </c>
-      <c r="S6">
-        <v>0.03552049683652818</v>
-      </c>
-      <c r="T6">
-        <v>0.03552049683652818</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.252496</v>
+      </c>
+      <c r="I12">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J12">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>66.089962</v>
+      </c>
+      <c r="N12">
+        <v>198.269886</v>
+      </c>
+      <c r="O12">
+        <v>0.08629966513164383</v>
+      </c>
+      <c r="P12">
+        <v>0.08629966513164385</v>
+      </c>
+      <c r="Q12">
+        <v>5.562483681717333</v>
+      </c>
+      <c r="R12">
+        <v>50.062353135456</v>
+      </c>
+      <c r="S12">
+        <v>0.004828030313797315</v>
+      </c>
+      <c r="T12">
+        <v>0.004828030313797316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.252496</v>
+      </c>
+      <c r="I13">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J13">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>187.8526456666667</v>
+      </c>
+      <c r="N13">
+        <v>563.557937</v>
+      </c>
+      <c r="O13">
+        <v>0.2452962586833789</v>
+      </c>
+      <c r="P13">
+        <v>0.2452962586833788</v>
+      </c>
+      <c r="Q13">
+        <v>15.81068054008356</v>
+      </c>
+      <c r="R13">
+        <v>142.296124860752</v>
+      </c>
+      <c r="S13">
+        <v>0.01372308653779666</v>
+      </c>
+      <c r="T13">
+        <v>0.01372308653779666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.252496</v>
+      </c>
+      <c r="I14">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J14">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>227.8758186666667</v>
+      </c>
+      <c r="N14">
+        <v>683.6274560000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2975581502457594</v>
+      </c>
+      <c r="P14">
+        <v>0.2975581502457594</v>
+      </c>
+      <c r="Q14">
+        <v>19.17924423668622</v>
+      </c>
+      <c r="R14">
+        <v>172.613198130176</v>
+      </c>
+      <c r="S14">
+        <v>0.01664687536518854</v>
+      </c>
+      <c r="T14">
+        <v>0.01664687536518854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.252496</v>
+      </c>
+      <c r="I15">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J15">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>254.4120126666667</v>
+      </c>
+      <c r="N15">
+        <v>763.236038</v>
+      </c>
+      <c r="O15">
+        <v>0.3322088685510345</v>
+      </c>
+      <c r="P15">
+        <v>0.3322088685510345</v>
+      </c>
+      <c r="Q15">
+        <v>21.41267185009422</v>
+      </c>
+      <c r="R15">
+        <v>192.714046650848</v>
+      </c>
+      <c r="S15">
+        <v>0.0185854080132298</v>
+      </c>
+      <c r="T15">
+        <v>0.0185854080132298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.252496</v>
+      </c>
+      <c r="I16">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J16">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>29.58901</v>
+      </c>
+      <c r="N16">
+        <v>88.76703000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="P16">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="Q16">
+        <v>2.490368889653333</v>
+      </c>
+      <c r="R16">
+        <v>22.41332000688</v>
+      </c>
+      <c r="S16">
+        <v>0.002161548182388907</v>
+      </c>
+      <c r="T16">
+        <v>0.002161548182388907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.293036</v>
+      </c>
+      <c r="I17">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J17">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>66.089962</v>
+      </c>
+      <c r="N17">
+        <v>198.269886</v>
+      </c>
+      <c r="O17">
+        <v>0.08629966513164383</v>
+      </c>
+      <c r="P17">
+        <v>0.08629966513164385</v>
+      </c>
+      <c r="Q17">
+        <v>6.455579368210667</v>
+      </c>
+      <c r="R17">
+        <v>58.10021431389601</v>
+      </c>
+      <c r="S17">
+        <v>0.0056032043716887</v>
+      </c>
+      <c r="T17">
+        <v>0.005603204371688701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H18">
+        <v>0.293036</v>
+      </c>
+      <c r="I18">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J18">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>187.8526456666667</v>
+      </c>
+      <c r="N18">
+        <v>563.557937</v>
+      </c>
+      <c r="O18">
+        <v>0.2452962586833789</v>
+      </c>
+      <c r="P18">
+        <v>0.2452962586833788</v>
+      </c>
+      <c r="Q18">
+        <v>18.34919595852578</v>
+      </c>
+      <c r="R18">
+        <v>165.142763626732</v>
+      </c>
+      <c r="S18">
+        <v>0.01592642412826255</v>
+      </c>
+      <c r="T18">
+        <v>0.01592642412826255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H19">
+        <v>0.293036</v>
+      </c>
+      <c r="I19">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J19">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>227.8758186666667</v>
+      </c>
+      <c r="N19">
+        <v>683.6274560000001</v>
+      </c>
+      <c r="O19">
+        <v>0.2975581502457594</v>
+      </c>
+      <c r="P19">
+        <v>0.2975581502457594</v>
+      </c>
+      <c r="Q19">
+        <v>22.25860613293511</v>
+      </c>
+      <c r="R19">
+        <v>200.327455196416</v>
+      </c>
+      <c r="S19">
+        <v>0.01931964771526436</v>
+      </c>
+      <c r="T19">
+        <v>0.01931964771526436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H20">
+        <v>0.293036</v>
+      </c>
+      <c r="I20">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J20">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>254.4120126666667</v>
+      </c>
+      <c r="N20">
+        <v>763.236038</v>
+      </c>
+      <c r="O20">
+        <v>0.3322088685510345</v>
+      </c>
+      <c r="P20">
+        <v>0.3322088685510345</v>
+      </c>
+      <c r="Q20">
+        <v>24.85062618126311</v>
+      </c>
+      <c r="R20">
+        <v>223.655635631368</v>
+      </c>
+      <c r="S20">
+        <v>0.02156942534758891</v>
+      </c>
+      <c r="T20">
+        <v>0.02156942534758891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H21">
+        <v>0.293036</v>
+      </c>
+      <c r="I21">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J21">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>29.58901</v>
+      </c>
+      <c r="N21">
+        <v>88.76703000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="P21">
+        <v>0.03863705738818341</v>
+      </c>
+      <c r="Q21">
+        <v>2.890215044786667</v>
+      </c>
+      <c r="R21">
+        <v>26.01193540308</v>
+      </c>
+      <c r="S21">
+        <v>0.002508599871580206</v>
+      </c>
+      <c r="T21">
+        <v>0.002508599871580206</v>
       </c>
     </row>
   </sheetData>
